--- a/KDp.xlsx
+++ b/KDp.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0293B9-8B07-4C9F-9A4B-7598AE065829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalpe\Desktop\Streamlit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A193ED-6382-4B62-821D-555D97963A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equity" sheetId="1" r:id="rId1"/>
@@ -161,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Stock</t>
   </si>
@@ -212,9 +217,6 @@
   </si>
   <si>
     <t>Reliance</t>
-  </si>
-  <si>
-    <t>SBICARD Booked Profit</t>
   </si>
   <si>
     <t>Currency</t>
@@ -263,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ [$₹-44D]\ * #,##0.00_ ;_ [$₹-44D]\ * \-#,##0.00_ ;_ [$₹-44D]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -336,7 +338,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -478,8 +479,8 @@
     <v>324.42</v>
     <v>147.01</v>
     <v>0.9133</v>
-    <v>0.55000000000000004</v>
-    <v>2.9549999999999997E-3</v>
+    <v>0.63</v>
+    <v>3.3839999999999999E-3</v>
     <v>INR</v>
     <v>Kitex Garments Limited is an India-based apparel manufacturer and exporter of knitted garments for infants and kids. The Company is engaged in the manufacturing of cotton and organic cotton ready-to-wear garments for infants and children in the age group of 0-24 months. The Company caters to various conglomerates in the United States of America and European markets, such as Gerber Childrenswear LLC, Carters, Carters brands, H &amp; O Fashions, Buy-Buy Baby, Ross Stores, Amazon, Target, Sam’s Club and Walmart. It has a licensee for Lamaze Organic brand of Childrenswear in the United States of America and has also registered its own brand, Little Star in the United States of America. Its subsidiaries include Kitex Littlewear Limited, Kitex Babywear Limited, Kitex Kidswear Limited, Kitex Knits Limited, Kitex Packs Limited, Kitex Socks Limited, and Kitex Apparel Parks Limited.</v>
     <v>5258</v>
@@ -490,16 +491,16 @@
     <v>189.23</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45951.448703703703</v>
+    <v>45951.45820601852</v>
     <v>0</v>
     <v>185</v>
     <v>37136930000</v>
     <v>KITEX GARMENTS LIMITED</v>
     <v>KITEX GARMENTS LIMITED</v>
     <v>187.8</v>
-    <v>28.185400000000001</v>
+    <v>28.197500000000002</v>
     <v>186.15</v>
-    <v>186.7</v>
+    <v>186.78</v>
     <v>199500000</v>
     <v>KITEX</v>
     <v>KITEX GARMENTS LIMITED (XNSE:KITEX)</v>
@@ -541,7 +542,7 @@
     <v>2219.8000000000002</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45951.448703703703</v>
+    <v>45951.45820601852</v>
     <v>3</v>
     <v>2186.9</v>
     <v>4402430000000</v>
@@ -579,9 +580,9 @@
     <v>4</v>
     <v>1027.25</v>
     <v>659.8</v>
-    <v>0.73809999999999998</v>
-    <v>-3.85</v>
-    <v>-4.1050000000000001E-3</v>
+    <v>0.74319999999999997</v>
+    <v>-1.25</v>
+    <v>-1.333E-3</v>
     <v>INR</v>
     <v>SBI Cards and Payment Services Limited is an India-based company. The Company provides credit card services. The Company operates through a single segment, namely, Credit cards. It offers a wide range of credit cards to individual cardholders and corporate clients. Its individual cards include travel &amp; fuel cards, lifestyle cards, shopping cards, and banking partnership cards. Its corporate cards include central travel card, utility card, corporate purchase card, and corporate virtual card. The Company also offers value-added payment products and services. It serves a wide spectrum of cardholders, spanning from the super-premium and premium categories to the affluent, mass affluent, mass, and new to credit segments. It has issued approximately 20 million credit cards.</v>
     <v>4098</v>
@@ -592,16 +593,16 @@
     <v>939</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45951.448819444442</v>
+    <v>45951.45821759259</v>
     <v>6</v>
     <v>929.1</v>
     <v>892504000000</v>
     <v>SBI CARDS AND PAYMENT SERVICES LIMITED</v>
     <v>SBI CARDS AND PAYMENT SERVICES LIMITED</v>
     <v>938.05</v>
-    <v>47.326599999999999</v>
+    <v>47.458399999999997</v>
     <v>937.95</v>
-    <v>934.1</v>
+    <v>936.7</v>
     <v>951547500</v>
     <v>SBICARD</v>
     <v>SBI CARDS AND PAYMENT SERVICES LIMITED (XNSE:SBICARD)</v>
@@ -643,7 +644,7 @@
     <v>1184.4000000000001</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45951.448865740742</v>
+    <v>45951.45821759259</v>
     <v>9</v>
     <v>1172.5</v>
     <v>1164097000000</v>
@@ -681,7 +682,7 @@
     <v>4</v>
     <v>515.9</v>
     <v>282.64999999999998</v>
-    <v>1.4037999999999999</v>
+    <v>1.3957999999999999</v>
     <v>0.8</v>
     <v>2.3240000000000001E-3</v>
     <v>INR</v>
@@ -694,7 +695,7 @@
     <v>346.5</v>
     <v>Household Goods</v>
     <v>Stock</v>
-    <v>45951.448564814818</v>
+    <v>45951.458194444444</v>
     <v>12</v>
     <v>343.05</v>
     <v>41164580000</v>
@@ -732,7 +733,7 @@
     <v>4</v>
     <v>687.35</v>
     <v>402.8</v>
-    <v>1.5926</v>
+    <v>1.6074999999999999</v>
     <v>11.35</v>
     <v>1.7056999999999999E-2</v>
     <v>INR</v>
@@ -745,7 +746,7 @@
     <v>678.8</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45951.448564814818</v>
+    <v>45951.458194444444</v>
     <v>15</v>
     <v>668.7</v>
     <v>93262830000</v>
@@ -755,7 +756,7 @@
     <v>0</v>
     <v>665.4</v>
     <v>676.75</v>
-    <v>133216800</v>
+    <v>140160500</v>
     <v>BORORENEW</v>
     <v>BOROSIL RENEWABLES LIMITED (XNSE:BORORENEW)</v>
     <v>409562</v>
@@ -796,7 +797,7 @@
     <v>1856.1</v>
     <v>Construction Materials</v>
     <v>Stock</v>
-    <v>45951.448518518519</v>
+    <v>45951.458194444444</v>
     <v>18</v>
     <v>1835.4</v>
     <v>343819700000</v>
@@ -835,8 +836,8 @@
     <v>353.95</v>
     <v>198.12</v>
     <v>0.82689999999999997</v>
-    <v>3.36</v>
-    <v>1.6395E-2</v>
+    <v>2.8</v>
+    <v>1.3663000000000002E-2</v>
     <v>INR</v>
     <v>ADF Foods Limited is an India-based company, which is engaged in the business of Meal accompaniments, and prepared food in frozen or canned form. The Company is engaged in the manufacture and selling of food products like pickles, chutneys, ready-to-eat items, paste and sauces, frozen foods, spices etc. The Company caters mainly to international markets and the domestic market. Its portfolio of brands includes Ashoka, Truly Indian, Camel, Aeroplane, ADF Soul, and Khansaama. Its Camel brand includes pickles, pastes, sauces, and condiments tailored for dishes such as Biryani, Mandi, Majboos, and Kabsa. The Company's Frozen products include frozen samosas, Kathi rolls, dosa wraps, snacks and ponk.</v>
     <v>369</v>
@@ -847,16 +848,16 @@
     <v>208.84</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45951.448530092595</v>
+    <v>45951.458194444444</v>
     <v>21</v>
     <v>203.4</v>
     <v>22515450000</v>
     <v>ADF FOODS LIMITED</v>
     <v>ADF FOODS LIMITED</v>
     <v>206</v>
-    <v>32.633600000000001</v>
+    <v>32.5458</v>
     <v>204.94</v>
-    <v>208.3</v>
+    <v>207.74</v>
     <v>109863600</v>
     <v>ADFFOODS</v>
     <v>ADF FOODS LIMITED (XNSE:ADFFOODS)</v>
@@ -886,8 +887,8 @@
     <v>321.95</v>
     <v>169.22</v>
     <v>0.62090000000000001</v>
-    <v>7</v>
-    <v>2.4813999999999999E-2</v>
+    <v>7.25</v>
+    <v>2.5699999999999997E-2</v>
     <v>INR</v>
     <v>Dishman Carbogen Amcis Limited is engaged in offering contract research and manufacturing services (CRAMS) and the manufacture and supply of marketable molecules such as specialty chemicals, vitamins and chemicals, and disinfectants. Its segments include CRAMS and Marketable Molecules. The CRAMS segment includes Contract Research Services and Contract Manufacturing Services, which it offers to its customers. Through its CRAMS business, the Company assists drug manufacturers in the development and optimization of processes for novel drug molecules in various stages of the development process. The Marketable Molecules segment manufactures and supplies intermediates, quaternary compounds, specialty chemicals, and various products for pharmaceuticals and cosmetics. It has manufacturing and research facilities in India, Switzerland, France, the Netherlands, the United Kingdom, and China. Its subsidiaries include CARBOGEN AMCIS (Shanghai) Co. Ltd, Dishman Infrastructure Ltd., and others.</v>
     <v>1106</v>
@@ -898,20 +899,20 @@
     <v>291.75</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45951.448587962965</v>
+    <v>45951.458194444444</v>
     <v>24</v>
     <v>282</v>
     <v>44228510000</v>
     <v>DISHMAN CARBOGEN AMCIS LIMITED</v>
     <v>DISHMAN CARBOGEN AMCIS LIMITED</v>
     <v>283.7</v>
-    <v>43.447600000000001</v>
+    <v>43.485100000000003</v>
     <v>282.10000000000002</v>
-    <v>289.10000000000002</v>
+    <v>289.35000000000002</v>
     <v>156783100</v>
     <v>DCAL</v>
     <v>DISHMAN CARBOGEN AMCIS LIMITED (XNSE:DCAL)</v>
-    <v>89430</v>
+    <v>89556</v>
     <v>299290</v>
     <v>2007</v>
   </rv>
@@ -949,7 +950,7 @@
     <v>1474</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>45951.448796296296</v>
+    <v>45951.45821759259</v>
     <v>27</v>
     <v>1460</v>
     <v>19849430000000</v>
@@ -1184,7 +1185,7 @@
       <x:numFmt numFmtId="0" formatCode="General"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <x:numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1551,21 +1552,21 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F16" sqref="F16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="60.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1587,14 +1588,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="J1">
-        <v>21850.429999999993</v>
-      </c>
-      <c r="K1" s="6">
-        <v>45662</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1609,18 +1605,18 @@
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_FV(D2,"Price",TRUE)</f>
-        <v>186.7</v>
-      </c>
-      <c r="F2" s="12">
+        <v>186.78</v>
+      </c>
+      <c r="F2">
         <f>B2*C2</f>
         <v>67760</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">(B2*E2)-F2</f>
-        <v>-2415.0000000000073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>-2387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1635,18 +1631,18 @@
       </c>
       <c r="E3" s="1" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_FV(D3,"Price",TRUE)</f>
-        <v>186.7</v>
-      </c>
-      <c r="F3" s="12">
+        <v>186.78</v>
+      </c>
+      <c r="F3">
         <f>B3*C3</f>
         <v>28900</v>
       </c>
       <c r="G3" s="1">
         <f ca="1">(B3*E3)-F3</f>
-        <v>-10230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>-10222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1668,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1698,7 +1694,7 @@
         <v>2922.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1713,7 +1709,7 @@
       </c>
       <c r="E6" s="10" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_FV(D6,"Price",TRUE)</f>
-        <v>934.1</v>
+        <v>936.7</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F15" si="0">B6*C6</f>
@@ -1721,10 +1717,10 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" ref="G6:G15" ca="1" si="1">(B6*E6)-F6</f>
-        <v>11362.800000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>11539.600000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +1746,7 @@
         <v>246.39999999999418</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1776,7 +1772,7 @@
         <v>-9256</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1798,7 @@
         <v>2636.7</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1828,7 +1824,7 @@
         <v>11275</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1854,7 +1850,7 @@
         <v>13575</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1880,7 +1876,7 @@
         <v>-3408.5999999999985</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1895,7 +1891,7 @@
       </c>
       <c r="E13" s="1" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">_FV(D13,"Price",TRUE)</f>
-        <v>208.3</v>
+        <v>207.74</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1903,10 +1899,10 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-4473.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>-4515.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1921,7 +1917,7 @@
       </c>
       <c r="E14" s="1" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">_FV(D14,"Price",TRUE)</f>
-        <v>289.10000000000002</v>
+        <v>289.35000000000002</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F14" si="6">B14*C14</f>
@@ -1929,10 +1925,10 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" ref="G14" ca="1" si="7">(B14*E14)-F14</f>
-        <v>569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1958,24 +1954,13 @@
         <v>2392.7999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="F16" s="3">
-        <f>SUM(F2:F15)</f>
-        <v>531375.5</v>
-      </c>
-      <c r="G16" s="4">
-        <f ca="1">SUM(G2:G15)</f>
-        <v>25096.849999999991</v>
-      </c>
-      <c r="H16" s="5">
-        <f ca="1">(G16/F16)*100</f>
-        <v>4.7229972025432092</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" ht="29.25">
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1990,32 +1975,32 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>22</v>
       </c>
       <c r="B2">
         <v>946.24</v>
@@ -2027,9 +2012,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>1770</v>
@@ -2041,9 +2026,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>128</v>
@@ -2055,7 +2040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5">
         <f>SUM(C2:C4)</f>
         <v>477</v>
@@ -2064,7 +2049,7 @@
         <f>SUM(D2:D4)</f>
         <v>161</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>-0.66</v>
       </c>
     </row>
@@ -2081,11 +2066,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2101,52 +2086,52 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>1700</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <f>SUM(B1:B5)</f>
         <v>2255</v>
